--- a/Hochschulstatistiken.xlsx
+++ b/Hochschulstatistiken.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achim\Desktop\Proj Hochschulfinanzierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4531E8-08EA-4773-8F44-D6B7BBD1675E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4284C-F2D2-4D90-8CC2-402B7ACE4713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
+    <sheet name="ZWISCHEN" sheetId="1" r:id="rId1"/>
     <sheet name="EinAus" sheetId="4" r:id="rId2"/>
     <sheet name="St" sheetId="2" r:id="rId3"/>
     <sheet name="StA" sheetId="3" r:id="rId4"/>
     <sheet name="Pers" sheetId="5" r:id="rId5"/>
     <sheet name="Prof" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">St!$A$61:$A$80</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">St!$B$61:$B$80</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">St!$C$61:$C$80</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">St!$D$61:$D$80</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">St!$E$61:$E$80</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">St!$F$61:$F$80</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">St!$G$61:$G$80</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="326">
   <si>
     <t>Studierende an Hochschulen in Baden-Württemberg seit dem Wintersemester 1950/51 nach Hochschularten und Geschlecht</t>
   </si>
@@ -552,9 +561,6 @@
   </si>
   <si>
     <t xml:space="preserve">3) Einschließlich Ersteinrichtung. </t>
-  </si>
-  <si>
-    <t>Zeitverlauf Personal und Studierende</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: </t>
@@ -944,12 +950,416 @@
   <si>
     <t>Hochschulpersonal nach Bundesländern und Personalgruppen</t>
   </si>
+  <si>
+    <t>in 1.000 Euro</t>
+  </si>
+  <si>
+    <t>Einnahmen Hochschulen und Universitäten [BW]</t>
+  </si>
+  <si>
+    <t>Ausgaben d. Hochschulen und Universitäten [BW]</t>
+  </si>
+  <si>
+    <t>an…</t>
+  </si>
+  <si>
+    <t>Universäten</t>
+  </si>
+  <si>
+    <t>Pädagogischen Hochschulen</t>
+  </si>
+  <si>
+    <t>Hochschulen für Angeandte Wissenschaften</t>
+  </si>
+  <si>
+    <t>Duale Hochschulen BW</t>
+  </si>
+  <si>
+    <t>in EUR</t>
+  </si>
+  <si>
+    <t>Entwicklung Professorenstellen</t>
+  </si>
+  <si>
+    <t>Studierende pro Professur</t>
+  </si>
+  <si>
+    <t>Professuren</t>
+  </si>
+  <si>
+    <t>Studierende</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quote Beiträge der Studierenden an den Gesamteinnahmen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Studierendenanteil)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Drittmittel anteilig zu Gesamteinnahmen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Drittmittelquote)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018 -&gt; 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Steigerung Einnahmen insgesamt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018 -&gt; 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Steigerung Einnahmen Drittmittel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2018 -&gt; 2019 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung Professorenstellen [BW]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2009 -&gt; 2019
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung Professorenstellen [BW]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2018 -&gt; 2019
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung Professurenstellen [BW]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2018 -&gt; 2019
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung Ausgaben pro Studierender</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2018 -&gt; 2019
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung Einnahmen pro Studierender</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ausgaben pro Studierender</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ausgaben pro Studierender</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Einnahmen pro Studierender</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2019
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Einnahmen pro Studierender</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2018 -&gt; 2019
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung Studierendenzahlen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2000 -&gt; 2019
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung Studierendenzahlen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018 -&gt; 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Steigerung 
+Einnahmen Beiträge Studierende</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,16 +1398,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1005,12 +1482,343 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1018,18 +1826,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1043,6 +1844,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,6 +1978,4687 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Entwicklung Anzahl </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Professoren [BW]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Universitäten</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ZWISCHEN!$A$31:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ZWISCHEN!$C$31:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2668</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2819</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2927</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE47-4D31-96EE-9F110AF57E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pädagogische Hochschulen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ZWISCHEN!$A$31:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ZWISCHEN!$D$31:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE47-4D31-96EE-9F110AF57E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="404948176"/>
+        <c:axId val="404948504"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Insgesamt</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ZWISCHEN!$A$31:$A$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ZWISCHEN!$B$31:$B$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>5149</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5176</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5166</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5188</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5283</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5241</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5245</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5357</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5537</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6157</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6346</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6585</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6832</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6995</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>7156</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7284</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7361</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7508</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7584</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7546</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FE47-4D31-96EE-9F110AF57E98}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="404948176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404948504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404948504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Professuren</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404948176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Entwicklung Studierende pro Professur [BW]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Universitäten</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ZWISCHEN!$A$57:$A$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ZWISCHEN!$F$57:$F$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>50.814405656208571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.18129686810763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.472605790645879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.444395214887017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.547598253275112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.045794804051077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.184010719071011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.777436347673401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.337467921300259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.695222405271828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.590725806451616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.789514563106799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.275862068965516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.075596330275232</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.816017316017316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.867361610352262</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63.484214260376021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.592105263157897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.641954219337208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.852407536636427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB48-4D6B-AE31-33C7033ED0A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pädagogische Hochschulen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ZWISCHEN!$A$57:$A$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ZWISCHEN!$G$57:$G$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>37.572499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.470899470899468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.716180371352785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.755813953488371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.839285714285708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.391812865497073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.534818941504177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.694444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.593837535014003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.627507163323784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.559322033898304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.929178470254953</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.245125348189418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.069164265129686</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.608450704225348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.552777777777777</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.396121883656505</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.926430517711168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.639037433155082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BB48-4D6B-AE31-33C7033ED0A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="406593536"/>
+        <c:axId val="406594192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="406593536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406594192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406594192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Studierende</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406593536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Entwicklung STudierendenzahlen [BW]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Universitäten</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>St!$A$61:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000/01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001/02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002/03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004/05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005/06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006/07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007/08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008/09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009/10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010/11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011/12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012/13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013/14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014/15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015/16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016/17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018/19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019/20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>St!$D$61:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>114993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133895</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>168820</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174606</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>176898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>178962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>174990</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171645</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>168671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5B7-4C06-A6D8-25DCEF0380B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Pädagogische Hochschulen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>St!$A$61:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000/01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001/02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002/03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004/05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005/06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006/07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007/08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008/09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009/10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010/11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011/12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012/13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013/14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014/15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015/16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016/17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018/19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019/20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>St!$F$61:$F$80</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>15029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19937</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24141</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23967</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24319</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5B7-4C06-A6D8-25DCEF0380B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="447230920"/>
+        <c:axId val="447233544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Insgesamt</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>St!$A$61:$A$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>2000/01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2001/02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2002/03</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2003/04</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2004/05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2005/06</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2006/07</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2007/08</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008/09</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2009/10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2010/11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2011/12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2012/13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2013/14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2014/15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2015/16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2016/17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2017/18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2018/19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2019/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>St!$B$61:$B$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>194000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>204530</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>217157</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>229327</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>237687</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>242559</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>242938</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>231509</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>259237</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>275005</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>287463</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>304994</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>330155</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>344425</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>354166</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>356689</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>359862</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>359749</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>357710</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>356901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-F5B7-4C06-A6D8-25DCEF0380B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>St!$A$61:$A$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>2000/01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2001/02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2002/03</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2003/04</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2004/05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2005/06</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2006/07</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2007/08</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008/09</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2009/10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2010/11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2011/12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2012/13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2013/14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2014/15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2015/16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2016/17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2017/18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2018/19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2019/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>St!$C$61:$C$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>85101</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>92008</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>99794</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>106303</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>110921</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>113594</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>114014</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>108447</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>111156</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>128962</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>135033</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>141023</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>153154</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>160617</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>165354</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>167357</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>170435</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>171702</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>172105</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>172947</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F5B7-4C06-A6D8-25DCEF0380B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>St!$A$61:$A$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>2000/01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2001/02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2002/03</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2003/04</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2004/05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2005/06</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2006/07</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2007/08</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008/09</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2009/10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2010/11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2011/12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2012/13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2013/14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2014/15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2015/16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2016/17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2017/18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2018/19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2019/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>St!$E$61:$E$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>50401</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>54066</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>58053</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>61865</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>64925</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>66289</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>67160</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>63756</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>65409</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>68306</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>70706</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>73346</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>79302</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>82403</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>83422</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>83855</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>84908</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>83187</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>82223</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>81605</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F5B7-4C06-A6D8-25DCEF0380B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>St!$A$61:$A$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>2000/01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2001/02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2002/03</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2003/04</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2004/05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2005/06</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2006/07</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2007/08</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008/09</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2009/10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2010/11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2011/12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2012/13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2013/14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2014/15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2015/16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2016/17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2017/18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2018/19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2019/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>St!$G$61:$G$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>11719</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13015</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>14658</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16163</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16976</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17393</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>17207</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15702</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15373</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>16361</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>17017</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17452</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18594</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18831</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>18771</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>18539</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>19047</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>19074</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19537</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-F5B7-4C06-A6D8-25DCEF0380B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="447230920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447233544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447233544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Studierende</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447230920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1096818</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E88404-0915-4742-AAE1-C2D0C3C38EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1220106</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1108364</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1544C502-2798-47DA-9584-F1E9FED65C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1154545</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEFD625F-244A-4F0D-A73B-9BB082A63820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1325,21 +6924,1745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="21.36328125" customWidth="1"/>
+    <col min="10" max="10" width="20.90625" customWidth="1"/>
+    <col min="11" max="11" width="23.90625" customWidth="1"/>
+    <col min="12" max="12" width="24.08984375" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" customWidth="1"/>
+    <col min="16" max="16" width="17.90625" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="20.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-    </row>
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+    </row>
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="H5" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="34"/>
+      <c r="M5" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1065685</v>
+      </c>
+      <c r="C6" s="14">
+        <v>40356</v>
+      </c>
+      <c r="D6" s="17">
+        <v>137701</v>
+      </c>
+      <c r="E6" s="14">
+        <v>881932</v>
+      </c>
+      <c r="F6" s="17">
+        <v>5696</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="46">
+        <v>2019</v>
+      </c>
+      <c r="J6" s="24">
+        <f>C6/B6</f>
+        <v>3.7868600946808863E-2</v>
+      </c>
+      <c r="K6" s="36">
+        <f>E6/B6</f>
+        <v>0.82757287566213278</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="69">
+        <f>(B6/B7)-1</f>
+        <v>6.6891654461195715E-2</v>
+      </c>
+      <c r="O6" s="69">
+        <f>(E6/E7)-1</f>
+        <v>6.9969512010181312E-2</v>
+      </c>
+      <c r="P6" s="79">
+        <f>(C6/C7)-1</f>
+        <v>7.788461538461533E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="14">
+        <v>998869</v>
+      </c>
+      <c r="C7" s="14">
+        <v>37440</v>
+      </c>
+      <c r="D7" s="17">
+        <v>131390</v>
+      </c>
+      <c r="E7" s="14">
+        <v>824259</v>
+      </c>
+      <c r="F7" s="17">
+        <v>5780</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="46">
+        <v>2018</v>
+      </c>
+      <c r="J7" s="24">
+        <f>C7/B7</f>
+        <v>3.7482392586014782E-2</v>
+      </c>
+      <c r="K7" s="36">
+        <f>E7/B7</f>
+        <v>0.82519229248279802</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="70">
+        <f>(B9/B10)-1</f>
+        <v>5.0383535230749787E-2</v>
+      </c>
+      <c r="O7" s="70">
+        <f>(E9/E10)-1</f>
+        <v>8.357450829838764E-2</v>
+      </c>
+      <c r="P7" s="75">
+        <f>(C9/C10)-1</f>
+        <v>3.8848584132927577E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="14">
+        <v>25059</v>
+      </c>
+      <c r="C9" s="14">
+        <v>4439</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1829</v>
+      </c>
+      <c r="E9" s="14">
+        <v>18346</v>
+      </c>
+      <c r="F9" s="18">
+        <v>444</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="46">
+        <v>2019</v>
+      </c>
+      <c r="J9" s="24">
+        <f>C9/B9</f>
+        <v>0.17714194500977692</v>
+      </c>
+      <c r="K9" s="36">
+        <f>E9/B9</f>
+        <v>0.7321122151721936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="14">
+        <v>23857</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4273</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1685</v>
+      </c>
+      <c r="E10" s="14">
+        <v>16931</v>
+      </c>
+      <c r="F10" s="18">
+        <v>968</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="26">
+        <v>2018</v>
+      </c>
+      <c r="J10" s="38">
+        <f>C10/B10</f>
+        <v>0.17910885693926312</v>
+      </c>
+      <c r="K10" s="27">
+        <f>E10/B10</f>
+        <v>0.70968688435260097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2899048</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1868636</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17806</v>
+      </c>
+      <c r="E19" s="2">
+        <v>92185</v>
+      </c>
+      <c r="F19" s="2">
+        <v>170341</v>
+      </c>
+      <c r="G19" s="2">
+        <v>368386</v>
+      </c>
+      <c r="H19" s="2">
+        <v>48121</v>
+      </c>
+      <c r="I19" s="2">
+        <v>183684</v>
+      </c>
+      <c r="J19" s="2">
+        <v>149890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2776173</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1817239</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15786</v>
+      </c>
+      <c r="E20" s="2">
+        <v>95361</v>
+      </c>
+      <c r="F20" s="2">
+        <v>150319</v>
+      </c>
+      <c r="G20" s="2">
+        <v>350465</v>
+      </c>
+      <c r="H20" s="2">
+        <v>50034</v>
+      </c>
+      <c r="I20" s="2">
+        <v>165208</v>
+      </c>
+      <c r="J20" s="2">
+        <v>131760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="14">
+        <v>171824</v>
+      </c>
+      <c r="C22" s="17">
+        <v>130994</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1273</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2395</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12200</v>
+      </c>
+      <c r="G22" s="2">
+        <v>16758</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1737</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4499</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="14">
+        <v>160934</v>
+      </c>
+      <c r="C23" s="17">
+        <v>123730</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1079</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2574</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9209</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14304</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1759</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4665</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5149</v>
+      </c>
+      <c r="C31" s="14">
+        <v>2263</v>
+      </c>
+      <c r="D31" s="15">
+        <v>400</v>
+      </c>
+      <c r="E31" s="12">
+        <v>324</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2162</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="J31" s="68">
+        <f>(C50/C31)-1</f>
+        <v>0.26646045072912061</v>
+      </c>
+      <c r="K31" s="51"/>
+      <c r="L31" s="67">
+        <f>(C50/C49)-1</f>
+        <v>-2.0840450973693248E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>2001</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5176</v>
+      </c>
+      <c r="C32" s="14">
+        <v>2267</v>
+      </c>
+      <c r="D32" s="15">
+        <v>378</v>
+      </c>
+      <c r="E32" s="12">
+        <v>331</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2200</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" s="66">
+        <f>(D50/D31)-1</f>
+        <v>-6.4999999999999947E-2</v>
+      </c>
+      <c r="K32" s="52"/>
+      <c r="L32" s="72">
+        <f>(D50/D49)-1</f>
+        <v>1.9073569482288777E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5166</v>
+      </c>
+      <c r="C33" s="14">
+        <v>2245</v>
+      </c>
+      <c r="D33" s="15">
+        <v>377</v>
+      </c>
+      <c r="E33" s="12">
+        <v>333</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2211</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="69">
+        <f>(E50/E31)-1</f>
+        <v>0.19135802469135799</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="72">
+        <f>(E50/E49)-1</f>
+        <v>1.5789473684210575E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5188</v>
+      </c>
+      <c r="C34" s="14">
+        <v>2257</v>
+      </c>
+      <c r="D34" s="15">
+        <v>360</v>
+      </c>
+      <c r="E34" s="12">
+        <v>334</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2237</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="J34" s="69">
+        <f>(F50/F31)-1</f>
+        <v>0.47733580018501387</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="72">
+        <f>(F50/F49)-1</f>
+        <v>2.8257456828886252E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5283</v>
+      </c>
+      <c r="C35" s="14">
+        <v>2290</v>
+      </c>
+      <c r="D35" s="15">
+        <v>344</v>
+      </c>
+      <c r="E35" s="12">
+        <v>352</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2297</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" s="42"/>
+      <c r="K35" s="70">
+        <f>(G50/G40)-1</f>
+        <v>0.40697674418604657</v>
+      </c>
+      <c r="L35" s="71">
+        <f>(G50/G49)-1</f>
+        <v>1.3793103448276334E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5241</v>
+      </c>
+      <c r="C36" s="14">
+        <v>2271</v>
+      </c>
+      <c r="D36" s="15">
+        <v>336</v>
+      </c>
+      <c r="E36" s="12">
+        <v>351</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2283</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5245</v>
+      </c>
+      <c r="C37" s="14">
+        <v>2239</v>
+      </c>
+      <c r="D37" s="15">
+        <v>342</v>
+      </c>
+      <c r="E37" s="12">
+        <v>352</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2312</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5357</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2278</v>
+      </c>
+      <c r="D38" s="15">
+        <v>359</v>
+      </c>
+      <c r="E38" s="12">
+        <v>363</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2357</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5537</v>
+      </c>
+      <c r="C39" s="14">
+        <v>2338</v>
+      </c>
+      <c r="D39" s="15">
+        <v>360</v>
+      </c>
+      <c r="E39" s="12">
+        <v>374</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2465</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B40" s="2">
+        <v>6157</v>
+      </c>
+      <c r="C40" s="14">
+        <v>2428</v>
+      </c>
+      <c r="D40" s="15">
+        <v>357</v>
+      </c>
+      <c r="E40" s="12">
+        <v>357</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2499</v>
+      </c>
+      <c r="G40" s="12">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B41" s="2">
+        <v>6346</v>
+      </c>
+      <c r="C41" s="14">
+        <v>2480</v>
+      </c>
+      <c r="D41" s="15">
+        <v>349</v>
+      </c>
+      <c r="E41" s="12">
+        <v>373</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2610</v>
+      </c>
+      <c r="G41" s="12">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="2">
+        <v>6585</v>
+      </c>
+      <c r="C42" s="14">
+        <v>2575</v>
+      </c>
+      <c r="D42" s="15">
+        <v>354</v>
+      </c>
+      <c r="E42" s="12">
+        <v>373</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2707</v>
+      </c>
+      <c r="G42" s="12">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="2">
+        <v>6832</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2668</v>
+      </c>
+      <c r="D43" s="15">
+        <v>353</v>
+      </c>
+      <c r="E43" s="12">
+        <v>374</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2828</v>
+      </c>
+      <c r="G43" s="12">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6995</v>
+      </c>
+      <c r="C44" s="14">
+        <v>2725</v>
+      </c>
+      <c r="D44" s="15">
+        <v>359</v>
+      </c>
+      <c r="E44" s="12">
+        <v>364</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2902</v>
+      </c>
+      <c r="G44" s="12">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7156</v>
+      </c>
+      <c r="C45" s="14">
+        <v>2772</v>
+      </c>
+      <c r="D45" s="15">
+        <v>347</v>
+      </c>
+      <c r="E45" s="12">
+        <v>366</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2974</v>
+      </c>
+      <c r="G45" s="12">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7284</v>
+      </c>
+      <c r="C46" s="14">
+        <v>2782</v>
+      </c>
+      <c r="D46" s="15">
+        <v>355</v>
+      </c>
+      <c r="E46" s="12">
+        <v>367</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3049</v>
+      </c>
+      <c r="G46" s="12">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="2">
+        <v>7361</v>
+      </c>
+      <c r="C47" s="14">
+        <v>2819</v>
+      </c>
+      <c r="D47" s="15">
+        <v>360</v>
+      </c>
+      <c r="E47" s="12">
+        <v>375</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3080</v>
+      </c>
+      <c r="G47" s="12">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7508</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2888</v>
+      </c>
+      <c r="D48" s="15">
+        <v>361</v>
+      </c>
+      <c r="E48" s="12">
+        <v>383</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3154</v>
+      </c>
+      <c r="G48" s="12">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7584</v>
+      </c>
+      <c r="C49" s="14">
+        <v>2927</v>
+      </c>
+      <c r="D49" s="15">
+        <v>367</v>
+      </c>
+      <c r="E49" s="12">
+        <v>380</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3185</v>
+      </c>
+      <c r="G49" s="12">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B50" s="2">
+        <v>7546</v>
+      </c>
+      <c r="C50" s="14">
+        <v>2866</v>
+      </c>
+      <c r="D50" s="15">
+        <v>374</v>
+      </c>
+      <c r="E50" s="12">
+        <v>386</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3194</v>
+      </c>
+      <c r="G50" s="12">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B53" s="57"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" s="54"/>
+    </row>
+    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B56" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="17">
+        <v>2263</v>
+      </c>
+      <c r="C57" s="18">
+        <v>400</v>
+      </c>
+      <c r="D57" s="17">
+        <v>114993</v>
+      </c>
+      <c r="E57" s="17">
+        <v>15029</v>
+      </c>
+      <c r="F57" s="15">
+        <f>D57/B57</f>
+        <v>50.814405656208571</v>
+      </c>
+      <c r="G57" s="15">
+        <f>E57/C57</f>
+        <v>37.572499999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B58" s="17">
+        <v>2267</v>
+      </c>
+      <c r="C58" s="18">
+        <v>378</v>
+      </c>
+      <c r="D58" s="17">
+        <v>120562</v>
+      </c>
+      <c r="E58" s="17">
+        <v>16432</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" ref="F58:F76" si="0">D58/B58</f>
+        <v>53.18129686810763</v>
+      </c>
+      <c r="G58" s="15">
+        <f t="shared" ref="G58:G76" si="1">E58/C58</f>
+        <v>43.470899470899468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B59" s="17">
+        <v>2245</v>
+      </c>
+      <c r="C59" s="18">
+        <v>377</v>
+      </c>
+      <c r="D59" s="17">
+        <v>126781</v>
+      </c>
+      <c r="E59" s="17">
+        <v>18366</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="0"/>
+        <v>56.472605790645879</v>
+      </c>
+      <c r="G59" s="15">
+        <f t="shared" si="1"/>
+        <v>48.716180371352785</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B60" s="17">
+        <v>2257</v>
+      </c>
+      <c r="C60" s="18">
+        <v>360</v>
+      </c>
+      <c r="D60" s="17">
+        <v>134166</v>
+      </c>
+      <c r="E60" s="17">
+        <v>20214</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="0"/>
+        <v>59.444395214887017</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="1"/>
+        <v>56.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B61" s="17">
+        <v>2290</v>
+      </c>
+      <c r="C61" s="18">
+        <v>344</v>
+      </c>
+      <c r="D61" s="17">
+        <v>138654</v>
+      </c>
+      <c r="E61" s="17">
+        <v>21244</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="0"/>
+        <v>60.547598253275112</v>
+      </c>
+      <c r="G61" s="15">
+        <f t="shared" si="1"/>
+        <v>61.755813953488371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B62" s="17">
+        <v>2271</v>
+      </c>
+      <c r="C62" s="18">
+        <v>336</v>
+      </c>
+      <c r="D62" s="17">
+        <v>140906</v>
+      </c>
+      <c r="E62" s="17">
+        <v>21786</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="0"/>
+        <v>62.045794804051077</v>
+      </c>
+      <c r="G62" s="15">
+        <f t="shared" si="1"/>
+        <v>64.839285714285708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B63" s="17">
+        <v>2239</v>
+      </c>
+      <c r="C63" s="18">
+        <v>342</v>
+      </c>
+      <c r="D63" s="17">
+        <v>141469</v>
+      </c>
+      <c r="E63" s="17">
+        <v>21680</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="0"/>
+        <v>63.184010719071011</v>
+      </c>
+      <c r="G63" s="15">
+        <f t="shared" si="1"/>
+        <v>63.391812865497073</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="17">
+        <v>2278</v>
+      </c>
+      <c r="C64" s="18">
+        <v>359</v>
+      </c>
+      <c r="D64" s="17">
+        <v>133895</v>
+      </c>
+      <c r="E64" s="17">
+        <v>19937</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="0"/>
+        <v>58.777436347673401</v>
+      </c>
+      <c r="G64" s="15">
+        <f t="shared" si="1"/>
+        <v>55.534818941504177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B65" s="17">
+        <v>2338</v>
+      </c>
+      <c r="C65" s="18">
+        <v>360</v>
+      </c>
+      <c r="D65" s="17">
+        <v>136393</v>
+      </c>
+      <c r="E65" s="17">
+        <v>19690</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="0"/>
+        <v>58.337467921300259</v>
+      </c>
+      <c r="G65" s="15">
+        <f t="shared" si="1"/>
+        <v>54.694444444444443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B66" s="17">
+        <v>2428</v>
+      </c>
+      <c r="C66" s="18">
+        <v>357</v>
+      </c>
+      <c r="D66" s="17">
+        <v>142512</v>
+      </c>
+      <c r="E66" s="17">
+        <v>20918</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" si="0"/>
+        <v>58.695222405271828</v>
+      </c>
+      <c r="G66" s="15">
+        <f t="shared" si="1"/>
+        <v>58.593837535014003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="17">
+        <v>2480</v>
+      </c>
+      <c r="C67" s="18">
+        <v>349</v>
+      </c>
+      <c r="D67" s="17">
+        <v>147785</v>
+      </c>
+      <c r="E67" s="17">
+        <v>21857</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" si="0"/>
+        <v>59.590725806451616</v>
+      </c>
+      <c r="G67" s="15">
+        <f t="shared" si="1"/>
+        <v>62.627507163323784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="17">
+        <v>2575</v>
+      </c>
+      <c r="C68" s="18">
+        <v>354</v>
+      </c>
+      <c r="D68" s="17">
+        <v>156533</v>
+      </c>
+      <c r="E68" s="17">
+        <v>22500</v>
+      </c>
+      <c r="F68" s="15">
+        <f t="shared" si="0"/>
+        <v>60.789514563106799</v>
+      </c>
+      <c r="G68" s="15">
+        <f t="shared" si="1"/>
+        <v>63.559322033898304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="17">
+        <v>2668</v>
+      </c>
+      <c r="C69" s="18">
+        <v>353</v>
+      </c>
+      <c r="D69" s="17">
+        <v>168820</v>
+      </c>
+      <c r="E69" s="17">
+        <v>23979</v>
+      </c>
+      <c r="F69" s="15">
+        <f t="shared" si="0"/>
+        <v>63.275862068965516</v>
+      </c>
+      <c r="G69" s="15">
+        <f t="shared" si="1"/>
+        <v>67.929178470254953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="17">
+        <v>2725</v>
+      </c>
+      <c r="C70" s="18">
+        <v>359</v>
+      </c>
+      <c r="D70" s="17">
+        <v>174606</v>
+      </c>
+      <c r="E70" s="17">
+        <v>24141</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" si="0"/>
+        <v>64.075596330275232</v>
+      </c>
+      <c r="G70" s="15">
+        <f t="shared" si="1"/>
+        <v>67.245125348189418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="17">
+        <v>2772</v>
+      </c>
+      <c r="C71" s="18">
+        <v>347</v>
+      </c>
+      <c r="D71" s="17">
+        <v>176898</v>
+      </c>
+      <c r="E71" s="17">
+        <v>23967</v>
+      </c>
+      <c r="F71" s="15">
+        <f t="shared" si="0"/>
+        <v>63.816017316017316</v>
+      </c>
+      <c r="G71" s="15">
+        <f t="shared" si="1"/>
+        <v>69.069164265129686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="17">
+        <v>2782</v>
+      </c>
+      <c r="C72" s="18">
+        <v>355</v>
+      </c>
+      <c r="D72" s="17">
+        <v>177679</v>
+      </c>
+      <c r="E72" s="17">
+        <v>23646</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="0"/>
+        <v>63.867361610352262</v>
+      </c>
+      <c r="G72" s="15">
+        <f t="shared" si="1"/>
+        <v>66.608450704225348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B73" s="17">
+        <v>2819</v>
+      </c>
+      <c r="C73" s="18">
+        <v>360</v>
+      </c>
+      <c r="D73" s="17">
+        <v>178962</v>
+      </c>
+      <c r="E73" s="17">
+        <v>24319</v>
+      </c>
+      <c r="F73" s="15">
+        <f t="shared" si="0"/>
+        <v>63.484214260376021</v>
+      </c>
+      <c r="G73" s="15">
+        <f t="shared" si="1"/>
+        <v>67.552777777777777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="17">
+        <v>2888</v>
+      </c>
+      <c r="C74" s="18">
+        <v>361</v>
+      </c>
+      <c r="D74" s="17">
+        <v>174990</v>
+      </c>
+      <c r="E74" s="17">
+        <v>24330</v>
+      </c>
+      <c r="F74" s="15">
+        <f t="shared" si="0"/>
+        <v>60.592105263157897</v>
+      </c>
+      <c r="G74" s="15">
+        <f t="shared" si="1"/>
+        <v>67.396121883656505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="17">
+        <v>2927</v>
+      </c>
+      <c r="C75" s="18">
+        <v>367</v>
+      </c>
+      <c r="D75" s="17">
+        <v>171645</v>
+      </c>
+      <c r="E75" s="17">
+        <v>24195</v>
+      </c>
+      <c r="F75" s="15">
+        <f t="shared" si="0"/>
+        <v>58.641954219337208</v>
+      </c>
+      <c r="G75" s="15">
+        <f t="shared" si="1"/>
+        <v>65.926430517711168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="17">
+        <v>2866</v>
+      </c>
+      <c r="C76" s="18">
+        <v>374</v>
+      </c>
+      <c r="D76" s="17">
+        <v>168671</v>
+      </c>
+      <c r="E76" s="17">
+        <v>24923</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" si="0"/>
+        <v>58.852407536636427</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" si="1"/>
+        <v>66.639037433155082</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G77" s="13"/>
+    </row>
+    <row r="82" spans="4:19" ht="58" x14ac:dyDescent="0.35">
+      <c r="D82" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G82" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q82" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="R82" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="S82" s="28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="D83" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="46">
+        <f>(B7*1000/171645)</f>
+        <v>5819.3888549040166</v>
+      </c>
+      <c r="F83" s="46">
+        <f>(B6*1000/168671)</f>
+        <v>6318.1281903824602</v>
+      </c>
+      <c r="G83" s="77">
+        <f>(F83/E83)-1</f>
+        <v>8.570304338026058E-2</v>
+      </c>
+      <c r="Q83" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="R83" s="73">
+        <f>(168671/114993)-1</f>
+        <v>0.46679363091666448</v>
+      </c>
+      <c r="S83" s="76">
+        <f>1-(171645/168671)</f>
+        <v>-1.7631958072223508E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:19" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D84" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="46">
+        <f>(B10*1000/24195)</f>
+        <v>986.03017152304199</v>
+      </c>
+      <c r="F84" s="46">
+        <f>(B9*1000/24923)</f>
+        <v>1005.4568069654536</v>
+      </c>
+      <c r="G84" s="77">
+        <f>(F84/E84)-1</f>
+        <v>1.9701867147132734E-2</v>
+      </c>
+      <c r="Q84" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="R84" s="74">
+        <f>(24923/15029)-1</f>
+        <v>0.6583272340142392</v>
+      </c>
+      <c r="S84" s="75">
+        <f>(24923/24195)-1</f>
+        <v>3.0088861334986561E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="D85" s="33"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="49"/>
+    </row>
+    <row r="86" spans="4:19" ht="58" x14ac:dyDescent="0.35">
+      <c r="D86" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="F86" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="G86" s="50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="87" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="D87" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="46">
+        <f>B20*1000/171645</f>
+        <v>16173.922922310583</v>
+      </c>
+      <c r="F87" s="46">
+        <f>B19*1000/168671</f>
+        <v>17187.590042153068</v>
+      </c>
+      <c r="G87" s="77">
+        <f>(F87/E87)-1</f>
+        <v>6.2672928807161243E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="D88" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="26">
+        <f>B23*1000/24195</f>
+        <v>6651.5395742922092</v>
+      </c>
+      <c r="F88" s="26">
+        <f>B22*1000/24923</f>
+        <v>6894.1941178830803</v>
+      </c>
+      <c r="G88" s="78">
+        <f>(F88/E88)-1</f>
+        <v>3.6480959164509219E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="4:19" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H9:H10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1347,22 +8670,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2958A61C-A0E2-4943-B3DA-9E762C93DFED}">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="22.54296875" customWidth="1"/>
     <col min="3" max="3" width="26.36328125" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" customWidth="1"/>
     <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="13" max="13" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1389,17 +8713,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1465,16 +8789,16 @@
       <c r="B12" s="2">
         <v>1065685</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="14">
         <v>40356</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="14">
         <v>137701</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="14">
         <v>881932</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="14">
         <v>5696</v>
       </c>
     </row>
@@ -1485,16 +8809,16 @@
       <c r="B13" s="2">
         <v>998869</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="14">
         <v>37440</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="14">
         <v>131390</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="14">
         <v>824259</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="14">
         <v>5780</v>
       </c>
     </row>
@@ -1510,16 +8834,16 @@
       <c r="B15" s="2">
         <v>25059</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="14">
         <v>4439</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="14">
         <v>1829</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="14">
         <v>18346</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="15">
         <v>444</v>
       </c>
     </row>
@@ -1530,16 +8854,16 @@
       <c r="B16" s="2">
         <v>23857</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="14">
         <v>4273</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="14">
         <v>1685</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="14">
         <v>16931</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="15">
         <v>968</v>
       </c>
     </row>
@@ -1939,7 +9263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>140</v>
       </c>
@@ -1949,28 +9273,28 @@
       <c r="E49" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2994,22 +10318,24 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D94" t="s">
+    <row r="94" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="D94" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
@@ -3800,6 +11126,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{50AD4E45-A337-4172-B388-8D58733F735A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3807,15 +11134,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F937D6F3-8CCD-4604-ADD1-EC6D3713FE3E}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -5964,13 +13291,13 @@
       <c r="C61" s="2">
         <v>85101</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="14">
         <v>114993</v>
       </c>
       <c r="E61" s="2">
         <v>50401</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="14">
         <v>15029</v>
       </c>
       <c r="G61" s="2">
@@ -6005,13 +13332,13 @@
       <c r="C62" s="2">
         <v>92008</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="14">
         <v>120562</v>
       </c>
       <c r="E62" s="2">
         <v>54066</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="14">
         <v>16432</v>
       </c>
       <c r="G62" s="2">
@@ -6046,13 +13373,13 @@
       <c r="C63" s="2">
         <v>99794</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="14">
         <v>126781</v>
       </c>
       <c r="E63" s="2">
         <v>58053</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="14">
         <v>18366</v>
       </c>
       <c r="G63" s="2">
@@ -6087,13 +13414,13 @@
       <c r="C64" s="2">
         <v>106303</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="14">
         <v>134166</v>
       </c>
       <c r="E64" s="2">
         <v>61865</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="14">
         <v>20214</v>
       </c>
       <c r="G64" s="2">
@@ -6128,13 +13455,13 @@
       <c r="C65" s="2">
         <v>110921</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="14">
         <v>138654</v>
       </c>
       <c r="E65" s="2">
         <v>64925</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="14">
         <v>21244</v>
       </c>
       <c r="G65" s="2">
@@ -6169,13 +13496,13 @@
       <c r="C66" s="2">
         <v>113594</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="14">
         <v>140906</v>
       </c>
       <c r="E66" s="2">
         <v>66289</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="14">
         <v>21786</v>
       </c>
       <c r="G66" s="2">
@@ -6210,13 +13537,13 @@
       <c r="C67" s="2">
         <v>114014</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="14">
         <v>141469</v>
       </c>
       <c r="E67" s="2">
         <v>67160</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="14">
         <v>21680</v>
       </c>
       <c r="G67" s="2">
@@ -6251,13 +13578,13 @@
       <c r="C68" s="2">
         <v>108447</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="14">
         <v>133895</v>
       </c>
       <c r="E68" s="2">
         <v>63756</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="14">
         <v>19937</v>
       </c>
       <c r="G68" s="2">
@@ -6292,13 +13619,13 @@
       <c r="C69" s="2">
         <v>111156</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="14">
         <v>136393</v>
       </c>
       <c r="E69" s="2">
         <v>65409</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="14">
         <v>19690</v>
       </c>
       <c r="G69" s="2">
@@ -6333,13 +13660,13 @@
       <c r="C70" s="2">
         <v>128962</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="14">
         <v>142512</v>
       </c>
       <c r="E70" s="2">
         <v>68306</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="14">
         <v>20918</v>
       </c>
       <c r="G70" s="2">
@@ -6374,13 +13701,13 @@
       <c r="C71" s="2">
         <v>135033</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="14">
         <v>147785</v>
       </c>
       <c r="E71" s="2">
         <v>70706</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="14">
         <v>21857</v>
       </c>
       <c r="G71" s="2">
@@ -6415,13 +13742,13 @@
       <c r="C72" s="2">
         <v>141023</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="14">
         <v>156533</v>
       </c>
       <c r="E72" s="2">
         <v>73346</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="14">
         <v>22500</v>
       </c>
       <c r="G72" s="2">
@@ -6456,13 +13783,13 @@
       <c r="C73" s="2">
         <v>153154</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="14">
         <v>168820</v>
       </c>
       <c r="E73" s="2">
         <v>79302</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="14">
         <v>23979</v>
       </c>
       <c r="G73" s="2">
@@ -6497,13 +13824,13 @@
       <c r="C74" s="2">
         <v>160617</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="14">
         <v>174606</v>
       </c>
       <c r="E74" s="2">
         <v>82403</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="14">
         <v>24141</v>
       </c>
       <c r="G74" s="2">
@@ -6538,13 +13865,13 @@
       <c r="C75" s="2">
         <v>165354</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="14">
         <v>176898</v>
       </c>
       <c r="E75" s="2">
         <v>83422</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="14">
         <v>23967</v>
       </c>
       <c r="G75" s="2">
@@ -6579,13 +13906,13 @@
       <c r="C76" s="2">
         <v>167357</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="14">
         <v>177679</v>
       </c>
       <c r="E76" s="2">
         <v>83855</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="14">
         <v>23646</v>
       </c>
       <c r="G76" s="2">
@@ -6620,13 +13947,13 @@
       <c r="C77" s="2">
         <v>170435</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="14">
         <v>178962</v>
       </c>
       <c r="E77" s="2">
         <v>84908</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="14">
         <v>24319</v>
       </c>
       <c r="G77" s="2">
@@ -6661,13 +13988,13 @@
       <c r="C78" s="2">
         <v>171702</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="14">
         <v>174990</v>
       </c>
       <c r="E78" s="2">
         <v>83187</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="14">
         <v>24330</v>
       </c>
       <c r="G78" s="2">
@@ -6702,13 +14029,13 @@
       <c r="C79" s="2">
         <v>172105</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="14">
         <v>171645</v>
       </c>
       <c r="E79" s="2">
         <v>82223</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="14">
         <v>24195</v>
       </c>
       <c r="G79" s="2">
@@ -6743,13 +14070,13 @@
       <c r="C80" s="2">
         <v>172947</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="14">
         <v>168671</v>
       </c>
       <c r="E80" s="2">
         <v>81605</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="14">
         <v>24923</v>
       </c>
       <c r="G80" s="2">
@@ -6826,15 +14153,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B5251-5DF6-4DF9-A00D-FF4EFD3D9453}">
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -8079,13 +15406,13 @@
       <c r="C37" s="2">
         <v>17032</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="14">
         <v>21644</v>
       </c>
       <c r="E37" s="2">
         <v>10221</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="14">
         <v>2500</v>
       </c>
       <c r="G37" s="2">
@@ -8120,13 +15447,13 @@
       <c r="C38" s="2">
         <v>18913</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="14">
         <v>23590</v>
       </c>
       <c r="E38" s="2">
         <v>11323</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="14">
         <v>3364</v>
       </c>
       <c r="G38" s="2">
@@ -8161,13 +15488,13 @@
       <c r="C39" s="2">
         <v>20025</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="14">
         <v>24544</v>
       </c>
       <c r="E39" s="2">
         <v>12154</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="14">
         <v>3480</v>
       </c>
       <c r="G39" s="2">
@@ -8202,13 +15529,13 @@
       <c r="C40" s="2">
         <v>20268</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="14">
         <v>26590</v>
       </c>
       <c r="E40" s="2">
         <v>12528</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="14">
         <v>3460</v>
       </c>
       <c r="G40" s="2">
@@ -8243,13 +15570,13 @@
       <c r="C41" s="2">
         <v>19341</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="14">
         <v>24416</v>
       </c>
       <c r="E41" s="2">
         <v>12070</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="14">
         <v>3150</v>
       </c>
       <c r="G41" s="2">
@@ -8284,13 +15611,13 @@
       <c r="C42" s="2">
         <v>18909</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="14">
         <v>23920</v>
       </c>
       <c r="E42" s="2">
         <v>11563</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="14">
         <v>3108</v>
       </c>
       <c r="G42" s="2">
@@ -8325,13 +15652,13 @@
       <c r="C43" s="2">
         <v>19011</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="14">
         <v>22941</v>
       </c>
       <c r="E43" s="2">
         <v>11316</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="14">
         <v>3114</v>
       </c>
       <c r="G43" s="2">
@@ -8366,13 +15693,13 @@
       <c r="C44" s="2">
         <v>19127</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="14">
         <v>22484</v>
       </c>
       <c r="E44" s="2">
         <v>11111</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="14">
         <v>2968</v>
       </c>
       <c r="G44" s="2">
@@ -8407,13 +15734,13 @@
       <c r="C45" s="2">
         <v>24643</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="14">
         <v>24586</v>
       </c>
       <c r="E45" s="2">
         <v>12202</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="14">
         <v>3250</v>
       </c>
       <c r="G45" s="2">
@@ -8448,13 +15775,13 @@
       <c r="C46" s="2">
         <v>26858</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="14">
         <v>26698</v>
       </c>
       <c r="E46" s="2">
         <v>13427</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="14">
         <v>3644</v>
       </c>
       <c r="G46" s="2">
@@ -8489,13 +15816,13 @@
       <c r="C47" s="2">
         <v>27797</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="14">
         <v>27921</v>
       </c>
       <c r="E47" s="2">
         <v>13825</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="14">
         <v>3888</v>
       </c>
       <c r="G47" s="2">
@@ -8530,13 +15857,13 @@
       <c r="C48" s="2">
         <v>29936</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="14">
         <v>32687</v>
       </c>
       <c r="E48" s="2">
         <v>14926</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="14">
         <v>3800</v>
       </c>
       <c r="G48" s="2">
@@ -8571,13 +15898,13 @@
       <c r="C49" s="2">
         <v>32171</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="14">
         <v>32971</v>
       </c>
       <c r="E49" s="2">
         <v>15952</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="14">
         <v>3565</v>
       </c>
       <c r="G49" s="2">
@@ -8612,13 +15939,13 @@
       <c r="C50" s="2">
         <v>31612</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="14">
         <v>31820</v>
       </c>
       <c r="E50" s="2">
         <v>15639</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="14">
         <v>3500</v>
       </c>
       <c r="G50" s="2">
@@ -8653,13 +15980,13 @@
       <c r="C51" s="2">
         <v>29977</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="14">
         <v>29652</v>
       </c>
       <c r="E51" s="2">
         <v>14403</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="14">
         <v>3375</v>
       </c>
       <c r="G51" s="2">
@@ -8694,13 +16021,13 @@
       <c r="C52" s="2">
         <v>30972</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="14">
         <v>30551</v>
       </c>
       <c r="E52" s="2">
         <v>15018</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="14">
         <v>3265</v>
       </c>
       <c r="G52" s="2">
@@ -8735,13 +16062,13 @@
       <c r="C53" s="2">
         <v>31474</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="14">
         <v>30910</v>
       </c>
       <c r="E53" s="2">
         <v>15329</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="14">
         <v>3374</v>
       </c>
       <c r="G53" s="2">
@@ -8776,13 +16103,13 @@
       <c r="C54" s="2">
         <v>30758</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="14">
         <v>28721</v>
       </c>
       <c r="E54" s="2">
         <v>14318</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="14">
         <v>3424</v>
       </c>
       <c r="G54" s="2">
@@ -8817,13 +16144,13 @@
       <c r="C55" s="2">
         <v>30634</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="14">
         <v>28155</v>
       </c>
       <c r="E55" s="2">
         <v>14086</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="14">
         <v>3259</v>
       </c>
       <c r="G55" s="2">
@@ -8858,13 +16185,13 @@
       <c r="C56" s="2">
         <v>30356</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="14">
         <v>27275</v>
       </c>
       <c r="E56" s="2">
         <v>13978</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="14">
         <v>3321</v>
       </c>
       <c r="G56" s="2">
@@ -9904,8 +17231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD20FE8-B91B-4128-A413-9AF96CD886E5}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9918,447 +17245,447 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="8">
-        <v>2017</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="10" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="10" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="D29" s="10" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="B30" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="D30" s="10" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="10" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D34" s="10" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="10" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="7">
+        <v>451</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="10">
-        <v>451</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D36" s="10">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D37" s="10" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="9" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="12" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -10383,74 +17710,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E91DCE5-3171-4CC6-9E3D-5ADC551C4529}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+    <row r="6" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1995</v>
       </c>
@@ -10470,10 +17805,10 @@
         <v>1992</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1996</v>
       </c>
@@ -10493,10 +17828,10 @@
         <v>2035</v>
       </c>
       <c r="G10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1997</v>
       </c>
@@ -10516,10 +17851,10 @@
         <v>2051</v>
       </c>
       <c r="G11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -10539,10 +17874,10 @@
         <v>2084</v>
       </c>
       <c r="G12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1999</v>
       </c>
@@ -10562,20 +17897,20 @@
         <v>2124</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2000</v>
       </c>
       <c r="B14" s="2">
         <v>5149</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="14">
         <v>2263</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="15">
         <v>400</v>
       </c>
       <c r="E14">
@@ -10585,20 +17920,20 @@
         <v>2162</v>
       </c>
       <c r="G14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2001</v>
       </c>
       <c r="B15" s="2">
         <v>5176</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="14">
         <v>2267</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
         <v>378</v>
       </c>
       <c r="E15">
@@ -10608,20 +17943,20 @@
         <v>2200</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2002</v>
       </c>
       <c r="B16" s="2">
         <v>5166</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="14">
         <v>2245</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <v>377</v>
       </c>
       <c r="E16">
@@ -10631,7 +17966,7 @@
         <v>2211</v>
       </c>
       <c r="G16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -10641,10 +17976,10 @@
       <c r="B17" s="2">
         <v>5188</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="14">
         <v>2257</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>360</v>
       </c>
       <c r="E17">
@@ -10654,7 +17989,7 @@
         <v>2237</v>
       </c>
       <c r="G17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -10664,10 +17999,10 @@
       <c r="B18" s="2">
         <v>5283</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="14">
         <v>2290</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>344</v>
       </c>
       <c r="E18">
@@ -10677,7 +18012,7 @@
         <v>2297</v>
       </c>
       <c r="G18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -10687,10 +18022,10 @@
       <c r="B19" s="2">
         <v>5241</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="14">
         <v>2271</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>336</v>
       </c>
       <c r="E19">
@@ -10700,7 +18035,7 @@
         <v>2283</v>
       </c>
       <c r="G19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -10710,10 +18045,10 @@
       <c r="B20" s="2">
         <v>5245</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="14">
         <v>2239</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="15">
         <v>342</v>
       </c>
       <c r="E20">
@@ -10723,7 +18058,7 @@
         <v>2312</v>
       </c>
       <c r="G20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -10733,10 +18068,10 @@
       <c r="B21" s="2">
         <v>5357</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="14">
         <v>2278</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <v>359</v>
       </c>
       <c r="E21">
@@ -10746,7 +18081,7 @@
         <v>2357</v>
       </c>
       <c r="G21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -10756,10 +18091,10 @@
       <c r="B22" s="2">
         <v>5537</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="14">
         <v>2338</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
         <v>360</v>
       </c>
       <c r="E22">
@@ -10769,7 +18104,7 @@
         <v>2465</v>
       </c>
       <c r="G22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -10779,10 +18114,10 @@
       <c r="B23" s="2">
         <v>6157</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="14">
         <v>2428</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="15">
         <v>357</v>
       </c>
       <c r="E23">
@@ -10802,10 +18137,10 @@
       <c r="B24" s="2">
         <v>6346</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="14">
         <v>2480</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="15">
         <v>349</v>
       </c>
       <c r="E24">
@@ -10825,10 +18160,10 @@
       <c r="B25" s="2">
         <v>6585</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="14">
         <v>2575</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="15">
         <v>354</v>
       </c>
       <c r="E25">
@@ -10848,10 +18183,10 @@
       <c r="B26" s="2">
         <v>6832</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="14">
         <v>2668</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="15">
         <v>353</v>
       </c>
       <c r="E26">
@@ -10871,10 +18206,10 @@
       <c r="B27" s="2">
         <v>6995</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="14">
         <v>2725</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="15">
         <v>359</v>
       </c>
       <c r="E27">
@@ -10894,10 +18229,10 @@
       <c r="B28" s="2">
         <v>7156</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="14">
         <v>2772</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="15">
         <v>347</v>
       </c>
       <c r="E28">
@@ -10917,10 +18252,10 @@
       <c r="B29" s="2">
         <v>7284</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="14">
         <v>2782</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="15">
         <v>355</v>
       </c>
       <c r="E29">
@@ -10940,10 +18275,10 @@
       <c r="B30" s="2">
         <v>7361</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="14">
         <v>2819</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="15">
         <v>360</v>
       </c>
       <c r="E30">
@@ -10963,10 +18298,10 @@
       <c r="B31" s="2">
         <v>7508</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="14">
         <v>2888</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="15">
         <v>361</v>
       </c>
       <c r="E31">
@@ -10986,10 +18321,10 @@
       <c r="B32" s="2">
         <v>7584</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="14">
         <v>2927</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="15">
         <v>367</v>
       </c>
       <c r="E32">
@@ -11009,10 +18344,10 @@
       <c r="B33" s="2">
         <v>7546</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="14">
         <v>2866</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="15">
         <v>374</v>
       </c>
       <c r="E33">
@@ -11027,7 +18362,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -11050,7 +18385,7 @@
         <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -11073,7 +18408,7 @@
         <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -11096,7 +18431,7 @@
         <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -11119,7 +18454,7 @@
         <v>151</v>
       </c>
       <c r="G38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -11142,7 +18477,7 @@
         <v>160</v>
       </c>
       <c r="G39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -11165,7 +18500,7 @@
         <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -11188,7 +18523,7 @@
         <v>196</v>
       </c>
       <c r="G41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -11211,7 +18546,7 @@
         <v>215</v>
       </c>
       <c r="G42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -11234,7 +18569,7 @@
         <v>225</v>
       </c>
       <c r="G43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -11257,7 +18592,7 @@
         <v>247</v>
       </c>
       <c r="G44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -11280,7 +18615,7 @@
         <v>267</v>
       </c>
       <c r="G45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -11303,7 +18638,7 @@
         <v>278</v>
       </c>
       <c r="G46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -11326,7 +18661,7 @@
         <v>303</v>
       </c>
       <c r="G47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -11349,7 +18684,7 @@
         <v>337</v>
       </c>
       <c r="G48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -11607,7 +18942,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -11630,7 +18965,7 @@
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -11653,7 +18988,7 @@
         <v>6.3</v>
       </c>
       <c r="G62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -11676,7 +19011,7 @@
         <v>6.7</v>
       </c>
       <c r="G63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -11699,7 +19034,7 @@
         <v>7.2</v>
       </c>
       <c r="G64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -11722,7 +19057,7 @@
         <v>7.5</v>
       </c>
       <c r="G65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -11745,7 +19080,7 @@
         <v>7.9</v>
       </c>
       <c r="G66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -11768,7 +19103,7 @@
         <v>8.9</v>
       </c>
       <c r="G67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -11791,7 +19126,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -11814,7 +19149,7 @@
         <v>10.1</v>
       </c>
       <c r="G69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -11837,7 +19172,7 @@
         <v>10.8</v>
       </c>
       <c r="G70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -11860,7 +19195,7 @@
         <v>11.7</v>
       </c>
       <c r="G71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -11883,7 +19218,7 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -11906,7 +19241,7 @@
         <v>12.9</v>
       </c>
       <c r="G73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -11929,7 +19264,7 @@
         <v>13.7</v>
       </c>
       <c r="G74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -12187,22 +19522,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Hochschulstatistiken.xlsx
+++ b/Hochschulstatistiken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achim\Desktop\Proj Hochschulfinanzierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4284C-F2D2-4D90-8CC2-402B7ACE4713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746D1206-D8CF-430B-8DF2-3ECDAFE7CDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZWISCHEN" sheetId="1" r:id="rId1"/>
@@ -1076,30 +1076,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2018 -&gt; 2019 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steigerung Professorenstellen [BW]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">2009 -&gt; 2019
 </t>
     </r>
@@ -1352,6 +1328,30 @@
       <t xml:space="preserve">
 Steigerung 
 Einnahmen Beiträge Studierende</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2000 -&gt; 2019 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung Professorenstellen [BW]</t>
     </r>
   </si>
 </sst>
@@ -6924,10 +6924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6997,7 +6997,7 @@
         <v>313</v>
       </c>
       <c r="P4" s="80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -7227,7 +7227,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>297</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>124</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2019</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>149890</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2018</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>131760</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>125</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2019</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2018</v>
       </c>
@@ -7405,15 +7405,15 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="56" t="s">
         <v>306</v>
       </c>
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
     </row>
-    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
         <v>250</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>103</v>
@@ -7442,16 +7442,25 @@
         <v>300</v>
       </c>
       <c r="J30" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="K30" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="L30" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="L30" s="53" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N30" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="O30" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>2000</v>
       </c>
@@ -7485,8 +7494,19 @@
         <f>(C50/C49)-1</f>
         <v>-2.0840450973693248E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="N31" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="73">
+        <f>(168671/114993)-1</f>
+        <v>0.46679363091666448</v>
+      </c>
+      <c r="P31" s="76">
+        <f>1-(171645/168671)</f>
+        <v>-1.7631958072223508E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>2001</v>
       </c>
@@ -7520,6 +7540,17 @@
         <f>(D50/D49)-1</f>
         <v>1.9073569482288777E-2</v>
       </c>
+      <c r="N32" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32" s="74">
+        <f>(24923/15029)-1</f>
+        <v>0.6583272340142392</v>
+      </c>
+      <c r="P32" s="75">
+        <f>(24923/24195)-1</f>
+        <v>3.0088861334986561E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
@@ -8518,30 +8549,21 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G77" s="13"/>
     </row>
-    <row r="82" spans="4:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:7" ht="58" x14ac:dyDescent="0.35">
       <c r="D82" s="59" t="s">
         <v>305</v>
       </c>
       <c r="E82" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="F82" s="41" t="s">
-        <v>322</v>
-      </c>
       <c r="G82" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q82" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="R82" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="S82" s="28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="83" spans="4:19" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D83" s="35" t="s">
         <v>124</v>
       </c>
@@ -8557,19 +8579,8 @@
         <f>(F83/E83)-1</f>
         <v>8.570304338026058E-2</v>
       </c>
-      <c r="Q83" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="R83" s="73">
-        <f>(168671/114993)-1</f>
-        <v>0.46679363091666448</v>
-      </c>
-      <c r="S83" s="76">
-        <f>1-(171645/168671)</f>
-        <v>-1.7631958072223508E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="4:19" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="4:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D84" s="23" t="s">
         <v>125</v>
       </c>
@@ -8585,39 +8596,28 @@
         <f>(F84/E84)-1</f>
         <v>1.9701867147132734E-2</v>
       </c>
-      <c r="Q84" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="R84" s="74">
-        <f>(24923/15029)-1</f>
-        <v>0.6583272340142392</v>
-      </c>
-      <c r="S84" s="75">
-        <f>(24923/24195)-1</f>
-        <v>3.0088861334986561E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="4:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="33"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
       <c r="G85" s="49"/>
     </row>
-    <row r="86" spans="4:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:7" ht="58" x14ac:dyDescent="0.35">
       <c r="D86" s="58" t="s">
         <v>305</v>
       </c>
       <c r="E86" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F86" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G86" s="50" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="87" spans="4:19" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D87" s="35" t="s">
         <v>124</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>6.2672928807161243E-2</v>
       </c>
     </row>
-    <row r="88" spans="4:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D88" s="25" t="s">
         <v>125</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>3.6480959164509219E-2</v>
       </c>
     </row>
-    <row r="94" spans="4:19" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="4:7" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B55:C55"/>

--- a/Hochschulstatistiken.xlsx
+++ b/Hochschulstatistiken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achim\Desktop\Proj Hochschulfinanzierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746D1206-D8CF-430B-8DF2-3ECDAFE7CDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00A7FD-9519-451B-9C16-F5A8FED1B4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6926,8 +6926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Hochschulstatistiken.xlsx
+++ b/Hochschulstatistiken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achim\Desktop\Proj Hochschulfinanzierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00A7FD-9519-451B-9C16-F5A8FED1B4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A204AE-9413-46AC-99B4-24E1ABA7DD3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <sheet name="Pers" sheetId="5" r:id="rId5"/>
     <sheet name="Prof" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">St!$A$61:$A$80</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">St!$B$61:$B$80</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">St!$C$61:$C$80</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">St!$D$61:$D$80</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">St!$E$61:$E$80</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">St!$F$61:$F$80</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">St!$G$61:$G$80</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1359,6 +1350,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1474,7 +1468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1703,75 +1697,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1813,12 +1738,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1872,13 +1926,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1906,23 +1953,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1936,6 +1970,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1945,23 +1997,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -6926,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6938,7 +7002,7 @@
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" customWidth="1"/>
     <col min="8" max="8" width="17.7265625" customWidth="1"/>
     <col min="9" max="9" width="21.36328125" customWidth="1"/>
     <col min="10" max="10" width="20.90625" customWidth="1"/>
@@ -6955,12 +7019,12 @@
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -6981,22 +7045,22 @@
       <c r="F4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="39" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="39" t="s">
+      <c r="M4" s="29"/>
+      <c r="N4" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="67" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7005,18 +7069,18 @@
         <v>124</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="53" t="s">
         <v>300</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="34"/>
-      <c r="M5" s="61" t="s">
+      <c r="K5" s="31"/>
+      <c r="M5" s="53" t="s">
         <v>300</v>
       </c>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="34"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
@@ -7037,32 +7101,32 @@
       <c r="F6" s="17">
         <v>5696</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="43">
         <v>2019</v>
       </c>
       <c r="J6" s="24">
         <f>C6/B6</f>
         <v>3.7868600946808863E-2</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="33">
         <f>E6/B6</f>
         <v>0.82757287566213278</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="58">
         <f>(B6/B7)-1</f>
         <v>6.6891654461195715E-2</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="58">
         <f>(E6/E7)-1</f>
         <v>6.9969512010181312E-2</v>
       </c>
-      <c r="P6" s="79">
+      <c r="P6" s="66">
         <f>(C6/C7)-1</f>
         <v>7.788461538461533E-2</v>
       </c>
@@ -7086,30 +7150,30 @@
       <c r="F7" s="17">
         <v>5780</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="46">
+      <c r="H7" s="69"/>
+      <c r="I7" s="43">
         <v>2018</v>
       </c>
       <c r="J7" s="24">
         <f>C7/B7</f>
         <v>3.7482392586014782E-2</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="33">
         <f>E7/B7</f>
         <v>0.82519229248279802</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="N7" s="70">
+      <c r="N7" s="59">
         <f>(B9/B10)-1</f>
         <v>5.0383535230749787E-2</v>
       </c>
-      <c r="O7" s="70">
+      <c r="O7" s="59">
         <f>(E9/E10)-1</f>
         <v>8.357450829838764E-2</v>
       </c>
-      <c r="P7" s="75">
+      <c r="P7" s="64">
         <f>(C9/C10)-1</f>
         <v>3.8848584132927577E-2</v>
       </c>
@@ -7123,10 +7187,10 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="46"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="36"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
@@ -7147,17 +7211,17 @@
       <c r="F9" s="18">
         <v>444</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="43">
         <v>2019</v>
       </c>
       <c r="J9" s="24">
         <f>C9/B9</f>
         <v>0.17714194500977692</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="33">
         <f>E9/B9</f>
         <v>0.7321122151721936</v>
       </c>
@@ -7181,11 +7245,11 @@
       <c r="F10" s="18">
         <v>968</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="26">
         <v>2018</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <f>C10/B10</f>
         <v>0.17910885693926312</v>
       </c>
@@ -7406,11 +7470,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
     </row>
     <row r="28" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7438,22 +7502,22 @@
       <c r="G30" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I30" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="L30" s="53" t="s">
+      <c r="L30" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="N30" s="59" t="s">
+      <c r="N30" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="O30" s="41" t="s">
         <v>323</v>
       </c>
       <c r="P30" s="28" t="s">
@@ -7485,23 +7549,23 @@
       <c r="I31" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="J31" s="68">
+      <c r="J31" s="57">
         <f>(C50/C31)-1</f>
         <v>0.26646045072912061</v>
       </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="67">
+      <c r="K31" s="44"/>
+      <c r="L31" s="56">
         <f>(C50/C49)-1</f>
         <v>-2.0840450973693248E-2</v>
       </c>
-      <c r="N31" s="35" t="s">
+      <c r="N31" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="O31" s="73">
+      <c r="O31" s="62">
         <f>(168671/114993)-1</f>
         <v>0.46679363091666448</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="65">
         <f>1-(171645/168671)</f>
         <v>-1.7631958072223508E-2</v>
       </c>
@@ -7531,23 +7595,23 @@
       <c r="I32" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="J32" s="66">
+      <c r="J32" s="55">
         <f>(D50/D31)-1</f>
         <v>-6.4999999999999947E-2</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="72">
+      <c r="K32" s="45"/>
+      <c r="L32" s="61">
         <f>(D50/D49)-1</f>
         <v>1.9073569482288777E-2</v>
       </c>
       <c r="N32" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="O32" s="74">
+      <c r="O32" s="63">
         <f>(24923/15029)-1</f>
         <v>0.6583272340142392</v>
       </c>
-      <c r="P32" s="75">
+      <c r="P32" s="64">
         <f>(24923/24195)-1</f>
         <v>3.0088861334986561E-2</v>
       </c>
@@ -7577,12 +7641,12 @@
       <c r="I33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="69">
+      <c r="J33" s="58">
         <f>(E50/E31)-1</f>
         <v>0.19135802469135799</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="72">
+      <c r="K33" s="45"/>
+      <c r="L33" s="61">
         <f>(E50/E49)-1</f>
         <v>1.5789473684210575E-2</v>
       </c>
@@ -7613,12 +7677,12 @@
       <c r="I34" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="J34" s="69">
+      <c r="J34" s="58">
         <f>(F50/F31)-1</f>
         <v>0.47733580018501387</v>
       </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="72">
+      <c r="K34" s="45"/>
+      <c r="L34" s="61">
         <f>(F50/F49)-1</f>
         <v>2.8257456828886252E-3</v>
       </c>
@@ -7648,12 +7712,12 @@
       <c r="I35" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="70">
+      <c r="J35" s="39"/>
+      <c r="K35" s="59">
         <f>(G50/G40)-1</f>
         <v>0.40697674418604657</v>
       </c>
-      <c r="L35" s="71">
+      <c r="L35" s="60">
         <f>(G50/G49)-1</f>
         <v>1.3793103448276334E-3</v>
       </c>
@@ -8007,42 +8071,42 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="B53" s="57"/>
+      <c r="B53" s="49"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54" t="s">
+      <c r="C55" s="68"/>
+      <c r="D55" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54" t="s">
+      <c r="E55" s="68"/>
+      <c r="F55" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="G55" s="54"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8549,33 +8613,33 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G77" s="13"/>
     </row>
-    <row r="82" spans="4:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="D82" s="59" t="s">
+    <row r="82" spans="4:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D82" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="77" t="s">
         <v>320</v>
       </c>
-      <c r="F82" s="41" t="s">
+      <c r="F82" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="G82" s="48" t="s">
+      <c r="G82" s="28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="46">
+      <c r="E83" s="83">
         <f>(B7*1000/171645)</f>
         <v>5819.3888549040166</v>
       </c>
-      <c r="F83" s="46">
+      <c r="F83" s="84">
         <f>(B6*1000/168671)</f>
         <v>6318.1281903824602</v>
       </c>
-      <c r="G83" s="77">
+      <c r="G83" s="66">
         <f>(F83/E83)-1</f>
         <v>8.570304338026058E-2</v>
       </c>
@@ -8584,52 +8648,52 @@
       <c r="D84" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="46">
+      <c r="E84" s="83">
         <f>(B10*1000/24195)</f>
         <v>986.03017152304199</v>
       </c>
-      <c r="F84" s="46">
+      <c r="F84" s="84">
         <f>(B9*1000/24923)</f>
         <v>1005.4568069654536</v>
       </c>
-      <c r="G84" s="77">
+      <c r="G84" s="66">
         <f>(F84/E84)-1</f>
         <v>1.9701867147132734E-2</v>
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D85" s="33"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="49"/>
-    </row>
-    <row r="86" spans="4:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="D86" s="58" t="s">
+      <c r="D85" s="30"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="75"/>
+    </row>
+    <row r="86" spans="4:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D86" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="E86" s="47" t="s">
+      <c r="E86" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="F86" s="47" t="s">
+      <c r="F86" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="G86" s="50" t="s">
+      <c r="G86" s="76" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="46">
+      <c r="E87" s="83">
         <f>B20*1000/171645</f>
         <v>16173.922922310583</v>
       </c>
-      <c r="F87" s="46">
+      <c r="F87" s="84">
         <f>B19*1000/168671</f>
         <v>17187.590042153068</v>
       </c>
-      <c r="G87" s="77">
+      <c r="G87" s="66">
         <f>(F87/E87)-1</f>
         <v>6.2672928807161243E-2</v>
       </c>
@@ -8638,15 +8702,15 @@
       <c r="D88" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="26">
+      <c r="E88" s="85">
         <f>B23*1000/24195</f>
         <v>6651.5395742922092</v>
       </c>
-      <c r="F88" s="26">
+      <c r="F88" s="86">
         <f>B22*1000/24923</f>
         <v>6894.1941178830803</v>
       </c>
-      <c r="G88" s="78">
+      <c r="G88" s="64">
         <f>(F88/E88)-1</f>
         <v>3.6480959164509219E-2</v>
       </c>
@@ -17262,12 +17326,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -17284,12 +17348,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -17536,12 +17600,12 @@
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
     </row>
     <row r="27" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
@@ -17606,12 +17670,12 @@
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
@@ -17712,7 +17776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E91DCE5-3171-4CC6-9E3D-5ADC551C4529}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Hochschulstatistiken.xlsx
+++ b/Hochschulstatistiken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achim\Desktop\Proj Hochschulfinanzierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A204AE-9413-46AC-99B4-24E1ABA7DD3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EA23A9-8E80-41E9-994B-B178281582BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZWISCHEN" sheetId="1" r:id="rId1"/>
@@ -1468,7 +1468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1867,12 +1867,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1985,25 +2037,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2026,6 +2059,31 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -6990,8 +7048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7101,7 +7159,7 @@
       <c r="F6" s="17">
         <v>5696</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="85" t="s">
         <v>124</v>
       </c>
       <c r="I6" s="43">
@@ -7150,7 +7208,7 @@
       <c r="F7" s="17">
         <v>5780</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="43">
         <v>2018</v>
       </c>
@@ -7211,7 +7269,7 @@
       <c r="F9" s="18">
         <v>444</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="86" t="s">
         <v>125</v>
       </c>
       <c r="I9" s="43">
@@ -7245,7 +7303,7 @@
       <c r="F10" s="18">
         <v>968</v>
       </c>
-      <c r="H10" s="71"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="26">
         <v>2018</v>
       </c>
@@ -8077,18 +8135,18 @@
       <c r="B53" s="49"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68" t="s">
+      <c r="C55" s="84"/>
+      <c r="D55" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68" t="s">
+      <c r="E55" s="84"/>
+      <c r="F55" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="G55" s="68"/>
+      <c r="G55" s="84"/>
     </row>
     <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="40" t="s">
@@ -8617,10 +8675,10 @@
       <c r="D82" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="E82" s="77" t="s">
+      <c r="E82" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="F82" s="78" t="s">
+      <c r="F82" s="71" t="s">
         <v>321</v>
       </c>
       <c r="G82" s="28" t="s">
@@ -8631,11 +8689,11 @@
       <c r="D83" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="83">
+      <c r="E83" s="76">
         <f>(B7*1000/171645)</f>
         <v>5819.3888549040166</v>
       </c>
-      <c r="F83" s="84">
+      <c r="F83" s="77">
         <f>(B6*1000/168671)</f>
         <v>6318.1281903824602</v>
       </c>
@@ -8645,39 +8703,39 @@
       </c>
     </row>
     <row r="84" spans="4:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="83">
+      <c r="E84" s="81">
         <f>(B10*1000/24195)</f>
         <v>986.03017152304199</v>
       </c>
-      <c r="F84" s="84">
+      <c r="F84" s="82">
         <f>(B9*1000/24923)</f>
         <v>1005.4568069654536</v>
       </c>
-      <c r="G84" s="66">
+      <c r="G84" s="83">
         <f>(F84/E84)-1</f>
         <v>1.9701867147132734E-2</v>
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="30"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="75"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="68"/>
     </row>
     <row r="86" spans="4:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D86" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="E86" s="81" t="s">
+      <c r="E86" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="F86" s="82" t="s">
+      <c r="F86" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="G86" s="76" t="s">
+      <c r="G86" s="69" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8685,11 +8743,11 @@
       <c r="D87" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="83">
+      <c r="E87" s="76">
         <f>B20*1000/171645</f>
         <v>16173.922922310583</v>
       </c>
-      <c r="F87" s="84">
+      <c r="F87" s="77">
         <f>B19*1000/168671</f>
         <v>17187.590042153068</v>
       </c>
@@ -8702,11 +8760,11 @@
       <c r="D88" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="85">
+      <c r="E88" s="78">
         <f>B23*1000/24195</f>
         <v>6651.5395742922092</v>
       </c>
-      <c r="F88" s="86">
+      <c r="F88" s="79">
         <f>B22*1000/24923</f>
         <v>6894.1941178830803</v>
       </c>
@@ -17326,12 +17384,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -17348,12 +17406,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -17600,12 +17658,12 @@
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
     </row>
     <row r="27" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
@@ -17670,12 +17728,12 @@
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
